--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value681.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value681.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.623221305015198</v>
+        <v>1.554153919219971</v>
       </c>
       <c r="B1">
-        <v>2.209393061648764</v>
+        <v>1.773665547370911</v>
       </c>
       <c r="C1">
-        <v>3.911447255635133</v>
+        <v>1.846433162689209</v>
       </c>
       <c r="D1">
-        <v>0.6572050587474495</v>
+        <v>2.23274302482605</v>
       </c>
       <c r="E1">
-        <v>0.5070649630564513</v>
+        <v>3.176971197128296</v>
       </c>
     </row>
   </sheetData>
